--- a/database - circanual/percentage offspring/IS-Dam-percentage of offspring by parent birthmonth.xlsx
+++ b/database - circanual/percentage offspring/IS-Dam-percentage of offspring by parent birthmonth.xlsx
@@ -471,7 +471,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>1992-1996</t>
+          <t>1991-1995</t>
         </is>
       </c>
     </row>
@@ -514,7 +514,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>1992-1996</t>
+          <t>1991-1995</t>
         </is>
       </c>
     </row>
@@ -560,7 +560,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>1992-1996</t>
+          <t>1991-1995</t>
         </is>
       </c>
     </row>
@@ -582,7 +582,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>1992-1996</t>
+          <t>1991-1995</t>
         </is>
       </c>
     </row>
@@ -622,7 +622,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>1992-1996</t>
+          <t>1991-1995</t>
         </is>
       </c>
     </row>
@@ -650,7 +650,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>1992-1996</t>
+          <t>1991-1995</t>
         </is>
       </c>
     </row>
@@ -660,7 +660,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>1992-1996</t>
+          <t>1991-1995</t>
         </is>
       </c>
     </row>
@@ -670,7 +670,7 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>1992-1996</t>
+          <t>1991-1995</t>
         </is>
       </c>
     </row>
@@ -678,45 +678,36 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10">
-        <v>4.10958904109589</v>
-      </c>
       <c r="C10">
-        <v>9.58904109589041</v>
-      </c>
-      <c r="D10">
-        <v>4.10958904109589</v>
+        <v>18.51851851851852</v>
       </c>
       <c r="E10">
-        <v>4.10958904109589</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="F10">
-        <v>15.06849315068493</v>
+        <v>7.407407407407407</v>
       </c>
       <c r="G10">
-        <v>10.95890410958904</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="H10">
-        <v>13.6986301369863</v>
+        <v>14.81481481481481</v>
       </c>
       <c r="I10">
-        <v>8.21917808219178</v>
+        <v>7.407407407407407</v>
       </c>
       <c r="J10">
-        <v>10.95890410958904</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="K10">
-        <v>8.21917808219178</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L10">
-        <v>2.73972602739726</v>
-      </c>
-      <c r="M10">
-        <v>8.21917808219178</v>
+        <v>7.407407407407407</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>1992-1996</t>
+          <t>1991-1995</t>
         </is>
       </c>
     </row>
@@ -725,38 +716,29 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>6.779661016949152</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="E11">
-        <v>5.084745762711865</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="F11">
-        <v>5.084745762711865</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="G11">
-        <v>13.5593220338983</v>
+        <v>19.23076923076923</v>
       </c>
       <c r="H11">
-        <v>15.25423728813559</v>
-      </c>
-      <c r="I11">
-        <v>8.474576271186439</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="J11">
-        <v>18.64406779661017</v>
-      </c>
-      <c r="K11">
-        <v>10.16949152542373</v>
+        <v>19.23076923076923</v>
       </c>
       <c r="L11">
-        <v>6.779661016949152</v>
-      </c>
-      <c r="M11">
-        <v>10.16949152542373</v>
+        <v>15.38461538461539</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>1992-1996</t>
+          <t>1991-1995</t>
         </is>
       </c>
     </row>
@@ -764,36 +746,9 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="C12">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="E12">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="F12">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="G12">
-        <v>18.51851851851852</v>
-      </c>
-      <c r="H12">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="I12">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="K12">
-        <v>7.407407407407407</v>
-      </c>
-      <c r="L12">
-        <v>7.407407407407407</v>
-      </c>
-      <c r="M12">
-        <v>11.11111111111111</v>
-      </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>1992-1996</t>
+          <t>1991-1995</t>
         </is>
       </c>
     </row>
@@ -836,7 +791,7 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>1992-1996</t>
+          <t>1991-1995</t>
         </is>
       </c>
     </row>
@@ -844,45 +799,39 @@
       <c r="A14">
         <v>1</v>
       </c>
-      <c r="B14">
-        <v>8.035714285714286</v>
-      </c>
       <c r="C14">
-        <v>10.71428571428571</v>
+        <v>10</v>
       </c>
       <c r="D14">
-        <v>7.142857142857142</v>
+        <v>7.5</v>
       </c>
       <c r="E14">
-        <v>10.71428571428571</v>
-      </c>
-      <c r="F14">
-        <v>3.571428571428571</v>
+        <v>15</v>
       </c>
       <c r="G14">
-        <v>7.142857142857142</v>
+        <v>5</v>
       </c>
       <c r="H14">
-        <v>9.821428571428571</v>
+        <v>15</v>
       </c>
       <c r="I14">
-        <v>8.035714285714286</v>
+        <v>7.5</v>
       </c>
       <c r="J14">
-        <v>8.928571428571429</v>
+        <v>10</v>
       </c>
       <c r="K14">
-        <v>8.928571428571429</v>
+        <v>10</v>
       </c>
       <c r="L14">
-        <v>8.928571428571429</v>
+        <v>10</v>
       </c>
       <c r="M14">
-        <v>8.035714285714286</v>
+        <v>10</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>1997-2001</t>
+          <t>1996-2000</t>
         </is>
       </c>
     </row>
@@ -922,7 +871,7 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>1997-2001</t>
+          <t>1996-2000</t>
         </is>
       </c>
     </row>
@@ -965,7 +914,7 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>1997-2001</t>
+          <t>1996-2000</t>
         </is>
       </c>
     </row>
@@ -975,7 +924,7 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>1997-2001</t>
+          <t>1996-2000</t>
         </is>
       </c>
     </row>
@@ -1006,7 +955,7 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>1997-2001</t>
+          <t>1996-2000</t>
         </is>
       </c>
     </row>
@@ -1049,7 +998,7 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>1997-2001</t>
+          <t>1996-2000</t>
         </is>
       </c>
     </row>
@@ -1058,44 +1007,41 @@
         <v>7</v>
       </c>
       <c r="B20">
-        <v>10.8695652173913</v>
+        <v>9.75609756097561</v>
       </c>
       <c r="C20">
-        <v>6.521739130434782</v>
-      </c>
-      <c r="D20">
-        <v>6.521739130434782</v>
+        <v>4.878048780487805</v>
       </c>
       <c r="E20">
-        <v>8.695652173913043</v>
+        <v>9.75609756097561</v>
       </c>
       <c r="F20">
-        <v>17.39130434782609</v>
+        <v>19.51219512195122</v>
       </c>
       <c r="G20">
-        <v>4.347826086956522</v>
+        <v>4.878048780487805</v>
       </c>
       <c r="H20">
-        <v>13.04347826086956</v>
+        <v>14.63414634146341</v>
       </c>
       <c r="I20">
-        <v>4.347826086956522</v>
+        <v>4.878048780487805</v>
       </c>
       <c r="J20">
-        <v>8.695652173913043</v>
+        <v>9.75609756097561</v>
       </c>
       <c r="K20">
-        <v>4.347826086956522</v>
+        <v>4.878048780487805</v>
       </c>
       <c r="L20">
-        <v>8.695652173913043</v>
+        <v>9.75609756097561</v>
       </c>
       <c r="M20">
-        <v>6.521739130434782</v>
+        <v>7.317073170731707</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>1997-2001</t>
+          <t>1996-2000</t>
         </is>
       </c>
     </row>
@@ -1104,44 +1050,44 @@
         <v>8</v>
       </c>
       <c r="B21">
-        <v>7.272727272727272</v>
+        <v>7.526881720430108</v>
       </c>
       <c r="C21">
-        <v>10</v>
+        <v>8.60215053763441</v>
       </c>
       <c r="D21">
-        <v>6.363636363636363</v>
+        <v>7.526881720430108</v>
       </c>
       <c r="E21">
-        <v>7.272727272727272</v>
+        <v>6.451612903225806</v>
       </c>
       <c r="F21">
-        <v>9.090909090909092</v>
+        <v>9.67741935483871</v>
       </c>
       <c r="G21">
-        <v>10.90909090909091</v>
+        <v>11.82795698924731</v>
       </c>
       <c r="H21">
-        <v>10</v>
+        <v>9.67741935483871</v>
       </c>
       <c r="I21">
-        <v>10</v>
+        <v>8.60215053763441</v>
       </c>
       <c r="J21">
-        <v>6.363636363636363</v>
+        <v>7.526881720430108</v>
       </c>
       <c r="K21">
-        <v>10.90909090909091</v>
+        <v>10.75268817204301</v>
       </c>
       <c r="L21">
-        <v>9.090909090909092</v>
+        <v>8.60215053763441</v>
       </c>
       <c r="M21">
-        <v>2.727272727272727</v>
+        <v>3.225806451612903</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>1997-2001</t>
+          <t>1996-2000</t>
         </is>
       </c>
     </row>
@@ -1150,44 +1096,44 @@
         <v>9</v>
       </c>
       <c r="B22">
-        <v>13.51351351351351</v>
+        <v>10.52631578947368</v>
       </c>
       <c r="C22">
-        <v>1.801801801801802</v>
+        <v>3.007518796992481</v>
       </c>
       <c r="D22">
-        <v>7.207207207207207</v>
+        <v>6.766917293233083</v>
       </c>
       <c r="E22">
-        <v>9.009009009009009</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="F22">
-        <v>9.009009009009009</v>
+        <v>12.03007518796992</v>
       </c>
       <c r="G22">
-        <v>9.009009009009009</v>
+        <v>9.774436090225564</v>
       </c>
       <c r="H22">
-        <v>4.504504504504505</v>
+        <v>8.270676691729323</v>
       </c>
       <c r="I22">
-        <v>9.009009009009009</v>
+        <v>8.270676691729323</v>
       </c>
       <c r="J22">
-        <v>14.41441441441441</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="K22">
-        <v>7.207207207207207</v>
+        <v>8.270676691729323</v>
       </c>
       <c r="L22">
-        <v>4.504504504504505</v>
+        <v>2.255639097744361</v>
       </c>
       <c r="M22">
-        <v>10.81081081081081</v>
+        <v>9.774436090225564</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>1997-2001</t>
+          <t>1996-2000</t>
         </is>
       </c>
     </row>
@@ -1196,41 +1142,41 @@
         <v>10</v>
       </c>
       <c r="B23">
-        <v>4.878048780487805</v>
-      </c>
-      <c r="C23">
-        <v>2.439024390243902</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="D23">
-        <v>9.75609756097561</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="E23">
-        <v>9.75609756097561</v>
+        <v>5</v>
       </c>
       <c r="F23">
-        <v>19.51219512195122</v>
+        <v>8.333333333333332</v>
+      </c>
+      <c r="G23">
+        <v>5</v>
       </c>
       <c r="H23">
-        <v>7.317073170731707</v>
+        <v>15</v>
       </c>
       <c r="I23">
-        <v>4.878048780487805</v>
+        <v>11.66666666666667</v>
       </c>
       <c r="J23">
-        <v>9.75609756097561</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="K23">
-        <v>4.878048780487805</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="L23">
-        <v>12.19512195121951</v>
+        <v>5</v>
       </c>
       <c r="M23">
-        <v>14.63414634146341</v>
+        <v>15</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>1997-2001</t>
+          <t>1996-2000</t>
         </is>
       </c>
     </row>
@@ -1238,9 +1184,36 @@
       <c r="A24">
         <v>11</v>
       </c>
+      <c r="C24">
+        <v>11.11111111111111</v>
+      </c>
+      <c r="E24">
+        <v>11.11111111111111</v>
+      </c>
+      <c r="F24">
+        <v>11.11111111111111</v>
+      </c>
+      <c r="G24">
+        <v>18.51851851851852</v>
+      </c>
+      <c r="H24">
+        <v>11.11111111111111</v>
+      </c>
+      <c r="I24">
+        <v>11.11111111111111</v>
+      </c>
+      <c r="K24">
+        <v>7.407407407407407</v>
+      </c>
+      <c r="L24">
+        <v>7.407407407407407</v>
+      </c>
+      <c r="M24">
+        <v>11.11111111111111</v>
+      </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>1997-2001</t>
+          <t>1996-2000</t>
         </is>
       </c>
     </row>
@@ -1248,45 +1221,9 @@
       <c r="A25">
         <v>12</v>
       </c>
-      <c r="B25">
-        <v>12.04819277108434</v>
-      </c>
-      <c r="C25">
-        <v>2.409638554216868</v>
-      </c>
-      <c r="D25">
-        <v>8.433734939759036</v>
-      </c>
-      <c r="E25">
-        <v>2.409638554216868</v>
-      </c>
-      <c r="F25">
-        <v>9.638554216867471</v>
-      </c>
-      <c r="G25">
-        <v>13.25301204819277</v>
-      </c>
-      <c r="H25">
-        <v>6.024096385542169</v>
-      </c>
-      <c r="I25">
-        <v>12.04819277108434</v>
-      </c>
-      <c r="J25">
-        <v>8.433734939759036</v>
-      </c>
-      <c r="K25">
-        <v>12.04819277108434</v>
-      </c>
-      <c r="L25">
-        <v>9.638554216867471</v>
-      </c>
-      <c r="M25">
-        <v>3.614457831325301</v>
-      </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>1997-2001</t>
+          <t>1996-2000</t>
         </is>
       </c>
     </row>
@@ -1295,44 +1232,44 @@
         <v>1</v>
       </c>
       <c r="B26">
-        <v>12.34567901234568</v>
+        <v>12.90322580645161</v>
       </c>
       <c r="C26">
-        <v>9.876543209876543</v>
+        <v>11.29032258064516</v>
       </c>
       <c r="D26">
-        <v>11.11111111111111</v>
+        <v>8.870967741935484</v>
       </c>
       <c r="E26">
-        <v>6.172839506172839</v>
+        <v>7.258064516129033</v>
       </c>
       <c r="F26">
-        <v>9.876543209876543</v>
+        <v>7.258064516129033</v>
       </c>
       <c r="G26">
-        <v>4.938271604938271</v>
+        <v>7.258064516129033</v>
       </c>
       <c r="H26">
-        <v>4.938271604938271</v>
+        <v>4.032258064516129</v>
       </c>
       <c r="I26">
-        <v>12.34567901234568</v>
+        <v>8.064516129032258</v>
       </c>
       <c r="J26">
-        <v>9.876543209876543</v>
+        <v>10.48387096774194</v>
       </c>
       <c r="K26">
-        <v>6.172839506172839</v>
+        <v>8.870967741935484</v>
       </c>
       <c r="L26">
-        <v>7.407407407407407</v>
+        <v>7.258064516129033</v>
       </c>
       <c r="M26">
-        <v>4.938271604938271</v>
+        <v>6.451612903225806</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>2002-2006</t>
+          <t>2001-2005</t>
         </is>
       </c>
     </row>
@@ -1378,7 +1315,7 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>2002-2006</t>
+          <t>2001-2005</t>
         </is>
       </c>
     </row>
@@ -1424,7 +1361,7 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>2002-2006</t>
+          <t>2001-2005</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1392,7 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>2002-2006</t>
+          <t>2001-2005</t>
         </is>
       </c>
     </row>
@@ -1463,42 +1400,9 @@
       <c r="A30">
         <v>5</v>
       </c>
-      <c r="B30">
-        <v>12.5</v>
-      </c>
-      <c r="C30">
-        <v>10.41666666666667</v>
-      </c>
-      <c r="D30">
-        <v>8.333333333333332</v>
-      </c>
-      <c r="E30">
-        <v>8.333333333333332</v>
-      </c>
-      <c r="F30">
-        <v>10.41666666666667</v>
-      </c>
-      <c r="H30">
-        <v>2.083333333333333</v>
-      </c>
-      <c r="I30">
-        <v>18.75</v>
-      </c>
-      <c r="J30">
-        <v>6.25</v>
-      </c>
-      <c r="K30">
-        <v>6.25</v>
-      </c>
-      <c r="L30">
-        <v>14.58333333333333</v>
-      </c>
-      <c r="M30">
-        <v>2.083333333333333</v>
-      </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>2002-2006</t>
+          <t>2001-2005</t>
         </is>
       </c>
     </row>
@@ -1506,42 +1410,27 @@
       <c r="A31">
         <v>6</v>
       </c>
-      <c r="B31">
-        <v>9.375</v>
-      </c>
       <c r="C31">
-        <v>18.75</v>
+        <v>26.66666666666667</v>
       </c>
       <c r="D31">
-        <v>6.25</v>
-      </c>
-      <c r="E31">
-        <v>9.375</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="F31">
-        <v>9.375</v>
+        <v>20</v>
       </c>
       <c r="G31">
-        <v>12.5</v>
-      </c>
-      <c r="H31">
-        <v>3.125</v>
+        <v>20</v>
       </c>
       <c r="I31">
-        <v>9.375</v>
-      </c>
-      <c r="J31">
-        <v>6.25</v>
-      </c>
-      <c r="K31">
-        <v>6.25</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="M31">
-        <v>9.375</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>2002-2006</t>
+          <t>2001-2005</t>
         </is>
       </c>
     </row>
@@ -1550,41 +1439,41 @@
         <v>7</v>
       </c>
       <c r="B32">
-        <v>7.317073170731707</v>
+        <v>8.695652173913043</v>
       </c>
       <c r="C32">
-        <v>12.19512195121951</v>
+        <v>13.04347826086956</v>
       </c>
       <c r="D32">
-        <v>12.19512195121951</v>
+        <v>17.39130434782609</v>
       </c>
       <c r="E32">
-        <v>4.878048780487805</v>
+        <v>4.347826086956522</v>
       </c>
       <c r="F32">
-        <v>7.317073170731707</v>
+        <v>6.521739130434782</v>
       </c>
       <c r="G32">
-        <v>9.75609756097561</v>
+        <v>8.695652173913043</v>
       </c>
       <c r="H32">
-        <v>7.317073170731707</v>
+        <v>6.521739130434782</v>
       </c>
       <c r="J32">
-        <v>12.19512195121951</v>
+        <v>10.8695652173913</v>
       </c>
       <c r="K32">
-        <v>7.317073170731707</v>
+        <v>6.521739130434782</v>
       </c>
       <c r="L32">
-        <v>12.19512195121951</v>
+        <v>10.8695652173913</v>
       </c>
       <c r="M32">
-        <v>7.317073170731707</v>
+        <v>6.521739130434782</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>2002-2006</t>
+          <t>2001-2005</t>
         </is>
       </c>
     </row>
@@ -1593,44 +1482,41 @@
         <v>8</v>
       </c>
       <c r="B33">
-        <v>15.78947368421053</v>
+        <v>10</v>
       </c>
       <c r="C33">
-        <v>12.28070175438596</v>
+        <v>16</v>
       </c>
       <c r="D33">
-        <v>5.847953216374268</v>
+        <v>2</v>
       </c>
       <c r="E33">
-        <v>8.187134502923977</v>
+        <v>12</v>
       </c>
       <c r="F33">
-        <v>8.771929824561402</v>
+        <v>8</v>
       </c>
       <c r="G33">
-        <v>9.941520467836257</v>
+        <v>8</v>
       </c>
       <c r="H33">
-        <v>4.678362573099415</v>
+        <v>6</v>
       </c>
       <c r="I33">
-        <v>8.187134502923977</v>
-      </c>
-      <c r="J33">
-        <v>6.432748538011696</v>
+        <v>14</v>
       </c>
       <c r="K33">
-        <v>5.263157894736842</v>
+        <v>12</v>
       </c>
       <c r="L33">
-        <v>9.941520467836257</v>
+        <v>10</v>
       </c>
       <c r="M33">
-        <v>4.678362573099415</v>
+        <v>2</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>2002-2006</t>
+          <t>2001-2005</t>
         </is>
       </c>
     </row>
@@ -1639,44 +1525,41 @@
         <v>9</v>
       </c>
       <c r="B34">
-        <v>11.53846153846154</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="C34">
-        <v>12.82051282051282</v>
+        <v>8.888888888888889</v>
       </c>
       <c r="D34">
-        <v>8.974358974358974</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="E34">
-        <v>2.564102564102564</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="F34">
-        <v>8.974358974358974</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="G34">
-        <v>8.974358974358974</v>
+        <v>8.888888888888889</v>
       </c>
       <c r="H34">
-        <v>8.974358974358974</v>
+        <v>4.444444444444445</v>
       </c>
       <c r="I34">
-        <v>8.974358974358974</v>
-      </c>
-      <c r="J34">
-        <v>3.846153846153846</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="K34">
-        <v>12.82051282051282</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L34">
-        <v>6.41025641025641</v>
+        <v>4.444444444444445</v>
       </c>
       <c r="M34">
-        <v>5.128205128205128</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>2002-2006</t>
+          <t>2001-2005</t>
         </is>
       </c>
     </row>
@@ -1684,36 +1567,30 @@
       <c r="A35">
         <v>10</v>
       </c>
+      <c r="B35">
+        <v>14.28571428571428</v>
+      </c>
       <c r="C35">
+        <v>7.142857142857142</v>
+      </c>
+      <c r="E35">
+        <v>7.142857142857142</v>
+      </c>
+      <c r="F35">
+        <v>21.42857142857143</v>
+      </c>
+      <c r="J35">
         <v>14.28571428571428</v>
       </c>
-      <c r="D35">
+      <c r="L35">
         <v>14.28571428571428</v>
       </c>
-      <c r="E35">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="F35">
-        <v>9.523809523809524</v>
-      </c>
-      <c r="G35">
-        <v>4.761904761904762</v>
-      </c>
-      <c r="H35">
-        <v>9.523809523809524</v>
-      </c>
-      <c r="J35">
-        <v>9.523809523809524</v>
-      </c>
-      <c r="K35">
-        <v>9.523809523809524</v>
-      </c>
       <c r="M35">
-        <v>14.28571428571428</v>
+        <v>21.42857142857143</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>2002-2006</t>
+          <t>2001-2005</t>
         </is>
       </c>
     </row>
@@ -1722,44 +1599,44 @@
         <v>11</v>
       </c>
       <c r="B36">
-        <v>8.287292817679557</v>
+        <v>9.917355371900827</v>
       </c>
       <c r="C36">
-        <v>7.18232044198895</v>
+        <v>10.74380165289256</v>
       </c>
       <c r="D36">
-        <v>9.392265193370166</v>
+        <v>8.264462809917356</v>
       </c>
       <c r="E36">
-        <v>7.734806629834254</v>
+        <v>6.611570247933884</v>
       </c>
       <c r="F36">
-        <v>13.25966850828729</v>
+        <v>11.5702479338843</v>
       </c>
       <c r="G36">
-        <v>6.077348066298343</v>
+        <v>4.958677685950414</v>
       </c>
       <c r="H36">
-        <v>7.18232044198895</v>
+        <v>5.785123966942149</v>
       </c>
       <c r="I36">
-        <v>8.287292817679557</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="J36">
-        <v>6.077348066298343</v>
+        <v>8.264462809917356</v>
       </c>
       <c r="K36">
-        <v>8.287292817679557</v>
+        <v>7.43801652892562</v>
       </c>
       <c r="L36">
-        <v>9.392265193370166</v>
+        <v>10.74380165289256</v>
       </c>
       <c r="M36">
-        <v>8.839779005524861</v>
+        <v>6.611570247933884</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>2002-2006</t>
+          <t>2001-2005</t>
         </is>
       </c>
     </row>
@@ -1768,41 +1645,44 @@
         <v>12</v>
       </c>
       <c r="B37">
-        <v>8.333333333333332</v>
+        <v>12.76595744680851</v>
       </c>
       <c r="C37">
-        <v>8.333333333333332</v>
+        <v>2.127659574468085</v>
       </c>
       <c r="D37">
-        <v>1.666666666666667</v>
+        <v>8.51063829787234</v>
       </c>
       <c r="E37">
-        <v>8.333333333333332</v>
+        <v>3.191489361702128</v>
       </c>
       <c r="F37">
-        <v>13.33333333333333</v>
+        <v>11.70212765957447</v>
       </c>
       <c r="G37">
-        <v>11.66666666666667</v>
+        <v>11.70212765957447</v>
       </c>
       <c r="H37">
-        <v>3.333333333333333</v>
+        <v>5.319148936170213</v>
       </c>
       <c r="I37">
-        <v>8.333333333333332</v>
+        <v>12.76595744680851</v>
       </c>
       <c r="J37">
-        <v>16.66666666666666</v>
+        <v>9.574468085106384</v>
       </c>
       <c r="K37">
-        <v>8.333333333333332</v>
+        <v>10.63829787234043</v>
+      </c>
+      <c r="L37">
+        <v>8.51063829787234</v>
       </c>
       <c r="M37">
-        <v>11.66666666666667</v>
+        <v>3.191489361702128</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>2002-2006</t>
+          <t>2001-2005</t>
         </is>
       </c>
     </row>
@@ -1811,44 +1691,44 @@
         <v>1</v>
       </c>
       <c r="B38">
-        <v>8.056872037914692</v>
+        <v>7.82122905027933</v>
       </c>
       <c r="C38">
-        <v>5.213270142180095</v>
+        <v>7.262569832402235</v>
       </c>
       <c r="D38">
-        <v>6.635071090047393</v>
+        <v>6.70391061452514</v>
       </c>
       <c r="E38">
-        <v>3.317535545023697</v>
+        <v>5.027932960893855</v>
       </c>
       <c r="F38">
-        <v>9.004739336492891</v>
+        <v>10.05586592178771</v>
       </c>
       <c r="G38">
-        <v>9.004739336492891</v>
+        <v>5.58659217877095</v>
       </c>
       <c r="H38">
-        <v>10.42654028436019</v>
+        <v>10.6145251396648</v>
       </c>
       <c r="I38">
-        <v>11.37440758293839</v>
+        <v>13.40782122905028</v>
       </c>
       <c r="J38">
-        <v>13.27014218009479</v>
+        <v>11.1731843575419</v>
       </c>
       <c r="K38">
-        <v>9.004739336492891</v>
+        <v>6.70391061452514</v>
       </c>
       <c r="L38">
-        <v>3.791469194312796</v>
+        <v>5.027932960893855</v>
       </c>
       <c r="M38">
-        <v>10.90047393364929</v>
+        <v>10.6145251396648</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>2007-2011</t>
+          <t>2006-2010</t>
         </is>
       </c>
     </row>
@@ -1856,45 +1736,27 @@
       <c r="A39">
         <v>2</v>
       </c>
-      <c r="B39">
-        <v>6.666666666666667</v>
-      </c>
       <c r="C39">
-        <v>6.666666666666667</v>
+        <v>12.5</v>
       </c>
       <c r="D39">
-        <v>6.666666666666667</v>
-      </c>
-      <c r="E39">
-        <v>6.666666666666667</v>
+        <v>25</v>
       </c>
       <c r="F39">
-        <v>10</v>
+        <v>12.5</v>
       </c>
       <c r="G39">
-        <v>13.33333333333333</v>
-      </c>
-      <c r="H39">
-        <v>5</v>
-      </c>
-      <c r="I39">
-        <v>10</v>
+        <v>12.5</v>
       </c>
       <c r="J39">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="K39">
-        <v>10</v>
-      </c>
-      <c r="L39">
-        <v>5</v>
-      </c>
-      <c r="M39">
-        <v>10</v>
+        <v>12.5</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>2007-2011</t>
+          <t>2006-2010</t>
         </is>
       </c>
     </row>
@@ -1904,7 +1766,7 @@
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>2007-2011</t>
+          <t>2006-2010</t>
         </is>
       </c>
     </row>
@@ -1950,7 +1812,7 @@
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>2007-2011</t>
+          <t>2006-2010</t>
         </is>
       </c>
     </row>
@@ -1959,44 +1821,44 @@
         <v>5</v>
       </c>
       <c r="B42">
-        <v>7.849829351535837</v>
+        <v>8.504398826979472</v>
       </c>
       <c r="C42">
-        <v>5.802047781569966</v>
+        <v>6.451612903225806</v>
       </c>
       <c r="D42">
-        <v>6.143344709897611</v>
+        <v>6.451612903225806</v>
       </c>
       <c r="E42">
-        <v>10.580204778157</v>
+        <v>10.26392961876833</v>
       </c>
       <c r="F42">
-        <v>9.897610921501707</v>
+        <v>9.970674486803519</v>
       </c>
       <c r="G42">
-        <v>8.873720136518772</v>
+        <v>7.624633431085044</v>
       </c>
       <c r="H42">
-        <v>8.532423208191126</v>
+        <v>7.624633431085044</v>
       </c>
       <c r="I42">
-        <v>8.191126279863481</v>
+        <v>9.67741935483871</v>
       </c>
       <c r="J42">
-        <v>8.532423208191126</v>
+        <v>8.211143695014663</v>
       </c>
       <c r="K42">
-        <v>9.215017064846416</v>
+        <v>8.797653958944283</v>
       </c>
       <c r="L42">
-        <v>10.580204778157</v>
+        <v>11.14369501466276</v>
       </c>
       <c r="M42">
-        <v>5.802047781569966</v>
+        <v>5.278592375366569</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>2007-2011</t>
+          <t>2006-2010</t>
         </is>
       </c>
     </row>
@@ -2004,42 +1866,45 @@
       <c r="A43">
         <v>6</v>
       </c>
+      <c r="B43">
+        <v>3.448275862068965</v>
+      </c>
       <c r="C43">
-        <v>4.285714285714286</v>
+        <v>5.747126436781609</v>
       </c>
       <c r="D43">
-        <v>15.71428571428571</v>
+        <v>12.64367816091954</v>
       </c>
       <c r="E43">
-        <v>7.142857142857142</v>
+        <v>9.195402298850574</v>
       </c>
       <c r="F43">
-        <v>5.714285714285714</v>
+        <v>4.597701149425287</v>
       </c>
       <c r="G43">
-        <v>5.714285714285714</v>
+        <v>5.747126436781609</v>
       </c>
       <c r="H43">
-        <v>17.14285714285714</v>
+        <v>14.94252873563219</v>
       </c>
       <c r="I43">
-        <v>8.571428571428571</v>
+        <v>9.195402298850574</v>
       </c>
       <c r="J43">
-        <v>10</v>
+        <v>10.3448275862069</v>
       </c>
       <c r="K43">
-        <v>12.85714285714286</v>
+        <v>12.64367816091954</v>
       </c>
       <c r="L43">
-        <v>7.142857142857142</v>
+        <v>5.747126436781609</v>
       </c>
       <c r="M43">
-        <v>5.714285714285714</v>
+        <v>5.747126436781609</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>2007-2011</t>
+          <t>2006-2010</t>
         </is>
       </c>
     </row>
@@ -2085,7 +1950,7 @@
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>2007-2011</t>
+          <t>2006-2010</t>
         </is>
       </c>
     </row>
@@ -2094,41 +1959,44 @@
         <v>8</v>
       </c>
       <c r="B45">
-        <v>9.900990099009901</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="C45">
-        <v>5.940594059405941</v>
+        <v>8.928571428571429</v>
+      </c>
+      <c r="D45">
+        <v>4.017857142857143</v>
       </c>
       <c r="E45">
-        <v>6.930693069306932</v>
+        <v>6.25</v>
       </c>
       <c r="F45">
-        <v>7.920792079207921</v>
+        <v>8.035714285714286</v>
       </c>
       <c r="G45">
-        <v>4.95049504950495</v>
+        <v>8.482142857142858</v>
       </c>
       <c r="H45">
-        <v>5.940594059405941</v>
+        <v>4.464285714285714</v>
       </c>
       <c r="I45">
-        <v>16.83168316831683</v>
+        <v>11.60714285714286</v>
       </c>
       <c r="J45">
-        <v>17.82178217821782</v>
+        <v>12.5</v>
       </c>
       <c r="K45">
-        <v>6.930693069306932</v>
+        <v>4.464285714285714</v>
       </c>
       <c r="L45">
-        <v>12.87128712871287</v>
+        <v>12.05357142857143</v>
       </c>
       <c r="M45">
-        <v>3.96039603960396</v>
+        <v>4.910714285714286</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>2007-2011</t>
+          <t>2006-2010</t>
         </is>
       </c>
     </row>
@@ -2136,27 +2004,42 @@
       <c r="A46">
         <v>9</v>
       </c>
-      <c r="E46">
-        <v>27.27272727272727</v>
+      <c r="B46">
+        <v>11.86440677966102</v>
+      </c>
+      <c r="C46">
+        <v>10.16949152542373</v>
+      </c>
+      <c r="D46">
+        <v>6.779661016949152</v>
       </c>
       <c r="F46">
-        <v>27.27272727272727</v>
+        <v>11.86440677966102</v>
       </c>
       <c r="G46">
-        <v>18.18181818181818</v>
+        <v>10.16949152542373</v>
       </c>
       <c r="H46">
-        <v>9.090909090909092</v>
+        <v>10.16949152542373</v>
+      </c>
+      <c r="I46">
+        <v>8.474576271186439</v>
       </c>
       <c r="J46">
-        <v>9.090909090909092</v>
+        <v>5.084745762711865</v>
       </c>
       <c r="K46">
-        <v>9.090909090909092</v>
+        <v>11.86440677966102</v>
+      </c>
+      <c r="L46">
+        <v>8.474576271186439</v>
+      </c>
+      <c r="M46">
+        <v>5.084745762711865</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>2007-2011</t>
+          <t>2006-2010</t>
         </is>
       </c>
     </row>
@@ -2164,21 +2047,39 @@
       <c r="A47">
         <v>10</v>
       </c>
+      <c r="C47">
+        <v>12</v>
+      </c>
       <c r="D47">
-        <v>25</v>
+        <v>16</v>
+      </c>
+      <c r="E47">
+        <v>12</v>
       </c>
       <c r="F47">
-        <v>25</v>
+        <v>12</v>
+      </c>
+      <c r="G47">
+        <v>4</v>
       </c>
       <c r="H47">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I47">
-        <v>25</v>
+        <v>4</v>
+      </c>
+      <c r="J47">
+        <v>8</v>
+      </c>
+      <c r="K47">
+        <v>8</v>
+      </c>
+      <c r="M47">
+        <v>12</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>2007-2011</t>
+          <t>2006-2010</t>
         </is>
       </c>
     </row>
@@ -2187,44 +2088,44 @@
         <v>11</v>
       </c>
       <c r="B48">
-        <v>7.555555555555555</v>
+        <v>7.017543859649122</v>
       </c>
       <c r="C48">
-        <v>4</v>
+        <v>3.157894736842105</v>
       </c>
       <c r="D48">
-        <v>5.333333333333334</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="E48">
-        <v>9.333333333333334</v>
+        <v>9.473684210526317</v>
       </c>
       <c r="F48">
-        <v>7.111111111111111</v>
+        <v>9.12280701754386</v>
       </c>
       <c r="G48">
-        <v>14.22222222222222</v>
+        <v>12.98245614035088</v>
       </c>
       <c r="H48">
-        <v>12</v>
+        <v>11.57894736842105</v>
       </c>
       <c r="I48">
-        <v>10.22222222222222</v>
+        <v>9.473684210526317</v>
       </c>
       <c r="J48">
-        <v>7.111111111111111</v>
+        <v>5.964912280701754</v>
       </c>
       <c r="K48">
-        <v>6.222222222222222</v>
+        <v>7.017543859649122</v>
       </c>
       <c r="L48">
-        <v>7.555555555555555</v>
+        <v>7.368421052631578</v>
       </c>
       <c r="M48">
-        <v>9.333333333333334</v>
+        <v>10.17543859649123</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>2007-2011</t>
+          <t>2006-2010</t>
         </is>
       </c>
     </row>
@@ -2233,44 +2134,44 @@
         <v>12</v>
       </c>
       <c r="B49">
-        <v>5.147058823529411</v>
+        <v>5.405405405405405</v>
       </c>
       <c r="C49">
-        <v>9.558823529411764</v>
+        <v>9.72972972972973</v>
       </c>
       <c r="D49">
-        <v>12.5</v>
+        <v>9.189189189189189</v>
       </c>
       <c r="E49">
-        <v>5.88235294117647</v>
+        <v>6.486486486486487</v>
       </c>
       <c r="F49">
-        <v>12.5</v>
+        <v>11.89189189189189</v>
       </c>
       <c r="G49">
-        <v>11.02941176470588</v>
+        <v>11.89189189189189</v>
       </c>
       <c r="H49">
-        <v>10.29411764705882</v>
+        <v>8.648648648648649</v>
       </c>
       <c r="I49">
-        <v>8.823529411764707</v>
+        <v>8.108108108108109</v>
       </c>
       <c r="J49">
-        <v>5.88235294117647</v>
+        <v>8.648648648648649</v>
       </c>
       <c r="K49">
-        <v>2.941176470588235</v>
+        <v>4.864864864864865</v>
       </c>
       <c r="L49">
-        <v>5.88235294117647</v>
+        <v>4.324324324324325</v>
       </c>
       <c r="M49">
-        <v>9.558823529411764</v>
+        <v>10.81081081081081</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>2007-2011</t>
+          <t>2006-2010</t>
         </is>
       </c>
     </row>
@@ -2279,44 +2180,44 @@
         <v>1</v>
       </c>
       <c r="B50">
-        <v>7.692307692307693</v>
+        <v>8.849557522123893</v>
       </c>
       <c r="C50">
-        <v>9.615384615384617</v>
+        <v>4.424778761061947</v>
       </c>
       <c r="D50">
-        <v>3.846153846153846</v>
+        <v>6.194690265486726</v>
       </c>
       <c r="E50">
-        <v>3.846153846153846</v>
+        <v>1.769911504424779</v>
       </c>
       <c r="F50">
-        <v>9.615384615384617</v>
+        <v>7.964601769911504</v>
       </c>
       <c r="G50">
-        <v>7.692307692307693</v>
+        <v>12.38938053097345</v>
       </c>
       <c r="H50">
-        <v>3.846153846153846</v>
+        <v>7.964601769911504</v>
       </c>
       <c r="I50">
-        <v>11.53846153846154</v>
+        <v>10.61946902654867</v>
       </c>
       <c r="J50">
-        <v>7.692307692307693</v>
+        <v>11.50442477876106</v>
       </c>
       <c r="K50">
-        <v>11.53846153846154</v>
+        <v>11.50442477876106</v>
       </c>
       <c r="L50">
-        <v>17.30769230769231</v>
+        <v>9.734513274336283</v>
       </c>
       <c r="M50">
-        <v>5.769230769230769</v>
+        <v>7.079646017699115</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>2012-2016</t>
+          <t>2011-2015</t>
         </is>
       </c>
     </row>
@@ -2324,9 +2225,45 @@
       <c r="A51">
         <v>2</v>
       </c>
+      <c r="B51">
+        <v>7.692307692307693</v>
+      </c>
+      <c r="C51">
+        <v>5.769230769230769</v>
+      </c>
+      <c r="D51">
+        <v>3.846153846153846</v>
+      </c>
+      <c r="E51">
+        <v>7.692307692307693</v>
+      </c>
+      <c r="F51">
+        <v>9.615384615384617</v>
+      </c>
+      <c r="G51">
+        <v>13.46153846153846</v>
+      </c>
+      <c r="H51">
+        <v>5.769230769230769</v>
+      </c>
+      <c r="I51">
+        <v>11.53846153846154</v>
+      </c>
+      <c r="J51">
+        <v>7.692307692307693</v>
+      </c>
+      <c r="K51">
+        <v>9.615384615384617</v>
+      </c>
+      <c r="L51">
+        <v>5.769230769230769</v>
+      </c>
+      <c r="M51">
+        <v>11.53846153846154</v>
+      </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>2012-2016</t>
+          <t>2011-2015</t>
         </is>
       </c>
     </row>
@@ -2335,44 +2272,44 @@
         <v>3</v>
       </c>
       <c r="B52">
-        <v>7.734806629834254</v>
+        <v>6.329113924050633</v>
       </c>
       <c r="C52">
-        <v>6.077348066298343</v>
+        <v>6.329113924050633</v>
       </c>
       <c r="D52">
-        <v>8.287292817679557</v>
+        <v>10.12658227848101</v>
       </c>
       <c r="E52">
-        <v>8.839779005524861</v>
+        <v>7.59493670886076</v>
       </c>
       <c r="F52">
-        <v>8.287292817679557</v>
+        <v>11.39240506329114</v>
       </c>
       <c r="G52">
-        <v>7.18232044198895</v>
+        <v>6.329113924050633</v>
       </c>
       <c r="H52">
-        <v>8.287292817679557</v>
+        <v>6.329113924050633</v>
       </c>
       <c r="I52">
-        <v>8.839779005524861</v>
+        <v>8.860759493670885</v>
       </c>
       <c r="J52">
-        <v>8.839779005524861</v>
+        <v>8.860759493670885</v>
       </c>
       <c r="K52">
-        <v>10.49723756906077</v>
+        <v>8.860759493670885</v>
       </c>
       <c r="L52">
-        <v>9.94475138121547</v>
+        <v>12.65822784810127</v>
       </c>
       <c r="M52">
-        <v>7.18232044198895</v>
+        <v>6.329113924050633</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>2012-2016</t>
+          <t>2011-2015</t>
         </is>
       </c>
     </row>
@@ -2381,44 +2318,44 @@
         <v>4</v>
       </c>
       <c r="B53">
-        <v>8.056872037914692</v>
+        <v>7.563025210084033</v>
       </c>
       <c r="C53">
-        <v>6.635071090047393</v>
+        <v>4.201680672268908</v>
       </c>
       <c r="D53">
-        <v>9.004739336492891</v>
+        <v>9.243697478991598</v>
       </c>
       <c r="E53">
-        <v>7.109004739336493</v>
+        <v>6.722689075630252</v>
       </c>
       <c r="F53">
-        <v>6.161137440758294</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="G53">
-        <v>6.161137440758294</v>
+        <v>6.722689075630252</v>
       </c>
       <c r="H53">
-        <v>9.004739336492891</v>
+        <v>6.722689075630252</v>
       </c>
       <c r="I53">
-        <v>11.84834123222749</v>
+        <v>12.60504201680672</v>
       </c>
       <c r="J53">
-        <v>9.004739336492891</v>
+        <v>7.563025210084033</v>
       </c>
       <c r="K53">
-        <v>9.478672985781991</v>
+        <v>11.76470588235294</v>
       </c>
       <c r="L53">
-        <v>9.478672985781991</v>
+        <v>12.60504201680672</v>
       </c>
       <c r="M53">
-        <v>8.056872037914692</v>
+        <v>8.403361344537815</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>2012-2016</t>
+          <t>2011-2015</t>
         </is>
       </c>
     </row>
@@ -2464,7 +2401,7 @@
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>2012-2016</t>
+          <t>2011-2015</t>
         </is>
       </c>
     </row>
@@ -2474,7 +2411,7 @@
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>2012-2016</t>
+          <t>2011-2015</t>
         </is>
       </c>
     </row>
@@ -2520,7 +2457,7 @@
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>2012-2016</t>
+          <t>2011-2015</t>
         </is>
       </c>
     </row>
@@ -2529,44 +2466,44 @@
         <v>8</v>
       </c>
       <c r="B57">
-        <v>3.048780487804878</v>
+        <v>3.35195530726257</v>
       </c>
       <c r="C57">
-        <v>7.926829268292683</v>
+        <v>8.379888268156424</v>
       </c>
       <c r="D57">
-        <v>9.75609756097561</v>
+        <v>8.938547486033519</v>
       </c>
       <c r="E57">
-        <v>9.75609756097561</v>
+        <v>10.6145251396648</v>
       </c>
       <c r="F57">
-        <v>8.536585365853659</v>
+        <v>8.938547486033519</v>
       </c>
       <c r="G57">
-        <v>9.146341463414634</v>
+        <v>8.379888268156424</v>
       </c>
       <c r="H57">
-        <v>7.317073170731707</v>
+        <v>8.379888268156424</v>
       </c>
       <c r="I57">
-        <v>10.97560975609756</v>
+        <v>10.6145251396648</v>
       </c>
       <c r="J57">
-        <v>12.80487804878049</v>
+        <v>12.29050279329609</v>
       </c>
       <c r="K57">
-        <v>3.658536585365853</v>
+        <v>4.46927374301676</v>
       </c>
       <c r="L57">
-        <v>8.536585365853659</v>
+        <v>7.82122905027933</v>
       </c>
       <c r="M57">
-        <v>8.536585365853659</v>
+        <v>7.82122905027933</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>2012-2016</t>
+          <t>2011-2015</t>
         </is>
       </c>
     </row>
@@ -2575,44 +2512,44 @@
         <v>9</v>
       </c>
       <c r="B58">
-        <v>10</v>
+        <v>9.523809523809524</v>
       </c>
       <c r="C58">
-        <v>8.888888888888889</v>
+        <v>8.465608465608465</v>
       </c>
       <c r="D58">
-        <v>7.777777777777778</v>
+        <v>7.407407407407407</v>
       </c>
       <c r="E58">
-        <v>7.777777777777778</v>
+        <v>8.994708994708994</v>
       </c>
       <c r="F58">
-        <v>7.222222222222221</v>
+        <v>8.465608465608465</v>
       </c>
       <c r="G58">
-        <v>7.222222222222221</v>
+        <v>7.407407407407407</v>
       </c>
       <c r="H58">
-        <v>6.666666666666667</v>
+        <v>6.349206349206349</v>
       </c>
       <c r="I58">
-        <v>12.77777777777778</v>
+        <v>12.16931216931217</v>
       </c>
       <c r="J58">
-        <v>8.333333333333332</v>
+        <v>8.465608465608465</v>
       </c>
       <c r="K58">
-        <v>7.222222222222221</v>
+        <v>7.407407407407407</v>
       </c>
       <c r="L58">
-        <v>6.111111111111111</v>
+        <v>5.82010582010582</v>
       </c>
       <c r="M58">
-        <v>10</v>
+        <v>9.523809523809524</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>2012-2016</t>
+          <t>2011-2015</t>
         </is>
       </c>
     </row>
@@ -2658,7 +2595,7 @@
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>2012-2016</t>
+          <t>2011-2015</t>
         </is>
       </c>
     </row>
@@ -2668,7 +2605,7 @@
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>2012-2016</t>
+          <t>2011-2015</t>
         </is>
       </c>
     </row>
@@ -2708,7 +2645,7 @@
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>2012-2016</t>
+          <t>2011-2015</t>
         </is>
       </c>
     </row>
@@ -2754,7 +2691,7 @@
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>2017-2021</t>
+          <t>2016-2020</t>
         </is>
       </c>
     </row>
@@ -2763,44 +2700,44 @@
         <v>2</v>
       </c>
       <c r="B63">
-        <v>5.809128630705394</v>
+        <v>6.334841628959276</v>
       </c>
       <c r="C63">
-        <v>9.54356846473029</v>
+        <v>9.95475113122172</v>
       </c>
       <c r="D63">
-        <v>7.883817427385892</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="E63">
-        <v>8.298755186721991</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="F63">
-        <v>9.54356846473029</v>
+        <v>9.95475113122172</v>
       </c>
       <c r="G63">
-        <v>6.224066390041494</v>
+        <v>6.787330316742081</v>
       </c>
       <c r="H63">
-        <v>12.03319502074689</v>
+        <v>11.31221719457014</v>
       </c>
       <c r="I63">
-        <v>10.78838174273859</v>
+        <v>9.95475113122172</v>
       </c>
       <c r="J63">
-        <v>7.883817427385892</v>
+        <v>8.597285067873303</v>
       </c>
       <c r="K63">
-        <v>9.12863070539419</v>
+        <v>8.144796380090497</v>
       </c>
       <c r="L63">
-        <v>7.053941908713693</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="M63">
-        <v>5.809128630705394</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>2017-2021</t>
+          <t>2016-2020</t>
         </is>
       </c>
     </row>
@@ -2809,44 +2746,44 @@
         <v>3</v>
       </c>
       <c r="B64">
-        <v>6.896551724137931</v>
+        <v>7.878787878787878</v>
       </c>
       <c r="C64">
-        <v>8.42911877394636</v>
+        <v>7.878787878787878</v>
       </c>
       <c r="D64">
-        <v>8.812260536398467</v>
+        <v>8.181818181818182</v>
       </c>
       <c r="E64">
-        <v>8.045977011494253</v>
+        <v>7.575757575757576</v>
       </c>
       <c r="F64">
-        <v>7.662835249042145</v>
+        <v>6.363636363636363</v>
       </c>
       <c r="G64">
-        <v>5.747126436781609</v>
+        <v>5.454545454545454</v>
       </c>
       <c r="H64">
-        <v>11.49425287356322</v>
+        <v>11.81818181818182</v>
       </c>
       <c r="I64">
-        <v>8.812260536398467</v>
+        <v>8.787878787878787</v>
       </c>
       <c r="J64">
-        <v>8.045977011494253</v>
+        <v>8.181818181818182</v>
       </c>
       <c r="K64">
-        <v>6.513409961685824</v>
+        <v>8.181818181818182</v>
       </c>
       <c r="L64">
-        <v>9.961685823754788</v>
+        <v>9.696969696969697</v>
       </c>
       <c r="M64">
-        <v>9.578544061302683</v>
+        <v>10</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>2017-2021</t>
+          <t>2016-2020</t>
         </is>
       </c>
     </row>
@@ -2855,44 +2792,44 @@
         <v>4</v>
       </c>
       <c r="B65">
-        <v>2.105263157894737</v>
+        <v>6.382978723404255</v>
       </c>
       <c r="C65">
-        <v>7.368421052631578</v>
+        <v>9.929078014184398</v>
       </c>
       <c r="D65">
-        <v>10.52631578947368</v>
+        <v>8.51063829787234</v>
       </c>
       <c r="E65">
-        <v>8.421052631578947</v>
+        <v>7.801418439716312</v>
       </c>
       <c r="F65">
-        <v>9.473684210526317</v>
+        <v>10.63829787234043</v>
       </c>
       <c r="G65">
-        <v>9.473684210526317</v>
+        <v>6.382978723404255</v>
       </c>
       <c r="H65">
-        <v>12.63157894736842</v>
+        <v>11.34751773049645</v>
       </c>
       <c r="I65">
-        <v>8.421052631578947</v>
+        <v>9.219858156028367</v>
       </c>
       <c r="J65">
-        <v>5.263157894736842</v>
+        <v>9.219858156028367</v>
       </c>
       <c r="K65">
-        <v>7.368421052631578</v>
+        <v>6.382978723404255</v>
       </c>
       <c r="L65">
-        <v>8.421052631578947</v>
+        <v>6.382978723404255</v>
       </c>
       <c r="M65">
-        <v>10.52631578947368</v>
+        <v>7.801418439716312</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>2017-2021</t>
+          <t>2016-2020</t>
         </is>
       </c>
     </row>
@@ -2901,44 +2838,44 @@
         <v>5</v>
       </c>
       <c r="B66">
-        <v>11.66666666666667</v>
+        <v>12.17391304347826</v>
       </c>
       <c r="C66">
-        <v>8.333333333333332</v>
+        <v>8.695652173913043</v>
       </c>
       <c r="D66">
-        <v>11.66666666666667</v>
+        <v>10.43478260869565</v>
       </c>
       <c r="E66">
-        <v>4.166666666666666</v>
+        <v>4.347826086956522</v>
       </c>
       <c r="F66">
-        <v>12.5</v>
+        <v>13.04347826086956</v>
       </c>
       <c r="G66">
-        <v>4.166666666666666</v>
+        <v>4.347826086956522</v>
       </c>
       <c r="H66">
-        <v>6.666666666666667</v>
+        <v>6.956521739130435</v>
       </c>
       <c r="I66">
-        <v>7.5</v>
+        <v>7.82608695652174</v>
       </c>
       <c r="J66">
-        <v>5.833333333333333</v>
+        <v>6.086956521739131</v>
       </c>
       <c r="K66">
-        <v>7.5</v>
+        <v>5.217391304347826</v>
       </c>
       <c r="L66">
-        <v>10.83333333333333</v>
+        <v>11.30434782608696</v>
       </c>
       <c r="M66">
-        <v>9.166666666666666</v>
+        <v>9.565217391304348</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>2017-2021</t>
+          <t>2016-2020</t>
         </is>
       </c>
     </row>
@@ -2947,44 +2884,44 @@
         <v>6</v>
       </c>
       <c r="B67">
-        <v>9.6</v>
+        <v>8.737864077669903</v>
       </c>
       <c r="C67">
-        <v>9.6</v>
+        <v>11.6504854368932</v>
       </c>
       <c r="D67">
-        <v>7.199999999999999</v>
+        <v>8.737864077669903</v>
       </c>
       <c r="E67">
-        <v>10.4</v>
+        <v>9.708737864077669</v>
       </c>
       <c r="F67">
-        <v>4.8</v>
+        <v>2.912621359223301</v>
       </c>
       <c r="G67">
-        <v>12</v>
+        <v>11.6504854368932</v>
       </c>
       <c r="H67">
-        <v>10.4</v>
+        <v>12.62135922330097</v>
       </c>
       <c r="I67">
-        <v>3.2</v>
+        <v>1.941747572815534</v>
       </c>
       <c r="J67">
-        <v>6.4</v>
+        <v>7.766990291262135</v>
       </c>
       <c r="K67">
-        <v>6.4</v>
+        <v>4.854368932038835</v>
       </c>
       <c r="L67">
-        <v>12</v>
+        <v>11.6504854368932</v>
       </c>
       <c r="M67">
-        <v>8</v>
+        <v>7.766990291262135</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>2017-2021</t>
+          <t>2016-2020</t>
         </is>
       </c>
     </row>
@@ -3021,7 +2958,7 @@
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>2017-2021</t>
+          <t>2016-2020</t>
         </is>
       </c>
     </row>
@@ -3030,38 +2967,38 @@
         <v>8</v>
       </c>
       <c r="B69">
-        <v>5.172413793103448</v>
+        <v>6.25</v>
       </c>
       <c r="C69">
-        <v>10.3448275862069</v>
+        <v>12.5</v>
       </c>
       <c r="D69">
-        <v>8.620689655172415</v>
+        <v>10.41666666666667</v>
       </c>
       <c r="E69">
-        <v>6.896551724137931</v>
+        <v>8.333333333333332</v>
       </c>
       <c r="F69">
-        <v>17.24137931034483</v>
+        <v>14.58333333333333</v>
       </c>
       <c r="G69">
-        <v>10.3448275862069</v>
+        <v>6.25</v>
       </c>
       <c r="H69">
-        <v>24.13793103448276</v>
+        <v>20.83333333333334</v>
       </c>
       <c r="J69">
-        <v>3.448275862068965</v>
+        <v>4.166666666666666</v>
       </c>
       <c r="K69">
-        <v>5.172413793103448</v>
+        <v>6.25</v>
       </c>
       <c r="M69">
-        <v>8.620689655172415</v>
+        <v>10.41666666666667</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>2017-2021</t>
+          <t>2016-2020</t>
         </is>
       </c>
     </row>
@@ -3071,7 +3008,7 @@
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>2017-2021</t>
+          <t>2016-2020</t>
         </is>
       </c>
     </row>
@@ -3080,41 +3017,41 @@
         <v>10</v>
       </c>
       <c r="B71">
-        <v>3.703703703703703</v>
+        <v>4.347826086956522</v>
       </c>
       <c r="C71">
-        <v>7.407407407407407</v>
+        <v>8.695652173913043</v>
       </c>
       <c r="D71">
-        <v>7.407407407407407</v>
+        <v>6.521739130434782</v>
       </c>
       <c r="E71">
-        <v>7.407407407407407</v>
+        <v>8.695652173913043</v>
       </c>
       <c r="F71">
-        <v>12.96296296296296</v>
+        <v>10.8695652173913</v>
       </c>
       <c r="G71">
-        <v>11.11111111111111</v>
+        <v>13.04347826086956</v>
       </c>
       <c r="H71">
-        <v>9.25925925925926</v>
+        <v>6.521739130434782</v>
       </c>
       <c r="I71">
-        <v>14.81481481481481</v>
+        <v>10.8695652173913</v>
       </c>
       <c r="K71">
-        <v>5.555555555555555</v>
+        <v>6.521739130434782</v>
       </c>
       <c r="L71">
-        <v>9.25925925925926</v>
+        <v>10.8695652173913</v>
       </c>
       <c r="M71">
-        <v>11.11111111111111</v>
+        <v>13.04347826086956</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>2017-2021</t>
+          <t>2016-2020</t>
         </is>
       </c>
     </row>
@@ -3123,38 +3060,38 @@
         <v>11</v>
       </c>
       <c r="C72">
-        <v>16.94915254237288</v>
+        <v>18.51851851851852</v>
       </c>
       <c r="D72">
-        <v>3.389830508474576</v>
+        <v>3.703703703703703</v>
       </c>
       <c r="E72">
-        <v>15.25423728813559</v>
+        <v>12.96296296296296</v>
       </c>
       <c r="F72">
-        <v>20.33898305084746</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="G72">
-        <v>10.16949152542373</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="H72">
-        <v>6.779661016949152</v>
+        <v>7.407407407407407</v>
       </c>
       <c r="I72">
-        <v>11.86440677966102</v>
+        <v>12.96296296296296</v>
       </c>
       <c r="J72">
-        <v>3.389830508474576</v>
+        <v>3.703703703703703</v>
       </c>
       <c r="K72">
-        <v>5.084745762711865</v>
+        <v>5.555555555555555</v>
       </c>
       <c r="M72">
-        <v>6.779661016949152</v>
+        <v>7.407407407407407</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>2017-2021</t>
+          <t>2016-2020</t>
         </is>
       </c>
     </row>
@@ -3191,7 +3128,7 @@
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>2017-2021</t>
+          <t>2016-2020</t>
         </is>
       </c>
     </row>
